--- a/plantillas/consulta/UTNo_Recibieron_Opiniones.xlsx
+++ b/plantillas/consulta/UTNo_Recibieron_Opiniones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD6D87-95C6-40D6-9966-55B56BB5B0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD52AF8A-5CC6-4FF7-8FB6-B7ABA94E0E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Fecha:</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Opiniones por  Mesa</t>
   </si>
   <si>
-    <t>Rubro General o Destino</t>
-  </si>
-  <si>
     <t>Opiniones SEI (Vía Remota)</t>
   </si>
   <si>
@@ -57,13 +54,13 @@
     <t>Demarcación Territorial</t>
   </si>
   <si>
-    <t>FORMATO X</t>
-  </si>
-  <si>
     <t>Clave de la UT</t>
   </si>
   <si>
-    <t>No. del Proyecto</t>
+    <t>Clave de Proyecto Especifico</t>
+  </si>
+  <si>
+    <t>Destino</t>
   </si>
 </sst>
 </file>
@@ -489,7 +486,7 @@
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +495,7 @@
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
     <col min="8" max="9" width="15.7109375" customWidth="1"/>
@@ -580,28 +577,26 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J10" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>3</v>
@@ -610,10 +605,10 @@
         <v>4</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
